--- a/Study 3/Baseline SUT/GCAM/aggr.xlsx
+++ b/Study 3/Baseline SUT/GCAM/aggr.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\loren\Documents\GitHub\SESAM\IAM_COMPACT_1stMC\Study 3\Baseline SUT\GCAM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC40E5F3-5EDC-4D4A-A79F-DB9E72E87FEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{526F315E-5367-4151-A1C4-FEEEBEBC0527}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Activity" sheetId="1" r:id="rId1"/>
@@ -4870,8 +4870,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B167"/>
   <sheetViews>
-    <sheetView topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="A121" sqref="A121"/>
+    <sheetView topLeftCell="A97" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A124" activeCellId="1" sqref="A121:A122 A124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5732,8 +5732,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B207"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55:XFD55"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44:B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12520,7 +12520,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
